--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/34.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/34.xlsx
@@ -479,13 +479,13 @@
         <v>-15.42526817667587</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.25593351536838</v>
+        <v>-9.184999418571907</v>
       </c>
       <c r="F2" t="n">
-        <v>5.088189862569327</v>
+        <v>5.125869510147814</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.64260759531635</v>
+        <v>-15.79805250695616</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.48783104916169</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.631473130080449</v>
+        <v>-9.590638237517107</v>
       </c>
       <c r="F3" t="n">
-        <v>4.972480090054152</v>
+        <v>4.996596111888612</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.17038132411813</v>
+        <v>-15.31742097733356</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.30162774990384</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.719715251233684</v>
+        <v>-9.683227003213792</v>
       </c>
       <c r="F4" t="n">
-        <v>5.154305991920044</v>
+        <v>5.183109058171841</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.45982277198913</v>
+        <v>-14.60707190205003</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.00590939184798</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.63774752649551</v>
+        <v>-10.59748869525721</v>
       </c>
       <c r="F5" t="n">
-        <v>5.202956989279897</v>
+        <v>5.242626666890327</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.63492913914334</v>
+        <v>-13.79993143185761</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.63200737513832</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.22601087777995</v>
+        <v>-11.17924517202931</v>
       </c>
       <c r="F6" t="n">
-        <v>5.42900869014514</v>
+        <v>5.490359221261468</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.88407247886751</v>
+        <v>-13.0037099422352</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.266823214505974</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.96653771111366</v>
+        <v>-11.92190605072622</v>
       </c>
       <c r="F7" t="n">
-        <v>5.721857320108869</v>
+        <v>5.784071943212751</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.69610310361497</v>
+        <v>-11.83067888452507</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.947709660237334</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.75288760439341</v>
+        <v>-12.70405331479377</v>
       </c>
       <c r="F8" t="n">
-        <v>5.952491326968715</v>
+        <v>6.00941665972454</v>
       </c>
       <c r="G8" t="n">
-        <v>-11.04109519244341</v>
+        <v>-11.17535675808531</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.728605766819999</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.46060512680576</v>
+        <v>-13.38359620149072</v>
       </c>
       <c r="F9" t="n">
-        <v>6.021068809253676</v>
+        <v>6.081345771536983</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.993697872802485</v>
+        <v>-10.12103361024111</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.626684688089105</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.4636719090246</v>
+        <v>-14.3895301980319</v>
       </c>
       <c r="F10" t="n">
-        <v>6.20252812664</v>
+        <v>6.260657951257263</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.42190463849294</v>
+        <v>-9.560656864009554</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.646008582903119</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.37751464737708</v>
+        <v>-15.3260618972091</v>
       </c>
       <c r="F11" t="n">
-        <v>6.41999127684107</v>
+        <v>6.476864240385527</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.730670325358329</v>
+        <v>-8.871176919455733</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.783820324066763</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.53057994325358</v>
+        <v>-16.46904611989746</v>
       </c>
       <c r="F12" t="n">
-        <v>6.384982459042294</v>
+        <v>6.439577361892292</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.32837004363777</v>
+        <v>-8.463443332055858</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.012381704366089</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.38672490298257</v>
+        <v>-17.31926026643916</v>
       </c>
       <c r="F13" t="n">
-        <v>6.224366087779999</v>
+        <v>6.267335025706544</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.974733851579908</v>
+        <v>-8.074052060937241</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.314477506082179</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.67224502670881</v>
+        <v>-18.58964568808036</v>
       </c>
       <c r="F14" t="n">
-        <v>6.32153715947129</v>
+        <v>6.374691909008697</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.12188815216703</v>
+        <v>-7.216676424741126</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.662773470174713</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.70727012016431</v>
+        <v>-19.61980044487873</v>
       </c>
       <c r="F15" t="n">
-        <v>6.271079424319278</v>
+        <v>6.299332613851722</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.637263470177698</v>
+        <v>-6.737419586916903</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.031167415661085</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.65050507839646</v>
+        <v>-20.57958407390283</v>
       </c>
       <c r="F16" t="n">
-        <v>6.223973318694747</v>
+        <v>6.233792545826041</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.064121728675456</v>
+        <v>-6.159211124214912</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.4078760347148959</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.64072831152757</v>
+        <v>-21.55370377453862</v>
       </c>
       <c r="F17" t="n">
-        <v>6.517974071308547</v>
+        <v>6.525515237745382</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.031980125199018</v>
+        <v>-6.113270233543296</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2214442819218084</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.46410323724372</v>
+        <v>-22.36650011955865</v>
       </c>
       <c r="F18" t="n">
-        <v>6.845386380774433</v>
+        <v>6.841825274401484</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.524391544025299</v>
+        <v>-5.622623092246769</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8516621676689043</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.08537228399215</v>
+        <v>-22.9778582930559</v>
       </c>
       <c r="F19" t="n">
-        <v>7.150122821718449</v>
+        <v>7.154731312318736</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.674701089597277</v>
+        <v>-4.741956249295224</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.472651000615989</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.97456221609366</v>
+        <v>-23.85652201367266</v>
       </c>
       <c r="F20" t="n">
-        <v>7.350461239802542</v>
+        <v>7.338887644090455</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.119613633713775</v>
+        <v>-4.17585816672183</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.070604946094919</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.24059780983753</v>
+        <v>-24.14366239959739</v>
       </c>
       <c r="F21" t="n">
-        <v>7.227864915992618</v>
+        <v>7.228388608106288</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.040169540070181</v>
+        <v>-4.072586081906295</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.623580257244378</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.92719744776617</v>
+        <v>-24.82680566957582</v>
       </c>
       <c r="F22" t="n">
-        <v>7.608510528812962</v>
+        <v>7.60515889928548</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.312528716086609</v>
+        <v>-4.340729536407687</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.116370231057054</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.11943173039124</v>
+        <v>-25.04323452785239</v>
       </c>
       <c r="F23" t="n">
-        <v>7.326371402573765</v>
+        <v>7.31343620736614</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.175949812841722</v>
+        <v>-4.200118203887548</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.535219754325926</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.52297578088176</v>
+        <v>-25.43991821165385</v>
       </c>
       <c r="F24" t="n">
-        <v>7.306759132916859</v>
+        <v>7.277694220608228</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.996271048641874</v>
+        <v>-4.011523581452485</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.8727805614457</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.65503783964625</v>
+        <v>-25.5687988408278</v>
       </c>
       <c r="F25" t="n">
-        <v>7.421997582529732</v>
+        <v>7.371042339869735</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.911000880233712</v>
+        <v>-3.925035828880042</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>4.134749485111761</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.98000188848073</v>
+        <v>-25.90987951446045</v>
       </c>
       <c r="F26" t="n">
-        <v>7.336426291156211</v>
+        <v>7.28552341770758</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.709366324168289</v>
+        <v>-3.720468596978072</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>4.328729273595089</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.89344867439408</v>
+        <v>-25.81399148844765</v>
       </c>
       <c r="F27" t="n">
-        <v>7.299767843199378</v>
+        <v>7.258579458459308</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.771450024243754</v>
+        <v>-3.774356515474617</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>4.470483766472084</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.85982764069653</v>
+        <v>-25.79807124819211</v>
       </c>
       <c r="F28" t="n">
-        <v>7.12676615344881</v>
+        <v>7.083404446437013</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.953210464595437</v>
+        <v>-3.971160011791443</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.576973332959296</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.83927272523502</v>
+        <v>-25.80137050850822</v>
       </c>
       <c r="F29" t="n">
-        <v>7.077670017792337</v>
+        <v>7.045096368322122</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.739269143858791</v>
+        <v>-3.730471116349151</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>4.660906346540115</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.69334591776114</v>
+        <v>-25.6407148603374</v>
       </c>
       <c r="F30" t="n">
-        <v>7.171646567590247</v>
+        <v>7.150960729100319</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.911393649318963</v>
+        <v>-3.915557001622632</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>4.737120468321388</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.3432315551677</v>
+        <v>-25.27451005755148</v>
       </c>
       <c r="F31" t="n">
-        <v>7.021006531093347</v>
+        <v>6.986233374745722</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.237876405283086</v>
+        <v>-4.248389524464993</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>4.810529393734584</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.94040758133347</v>
+        <v>-24.87443546731402</v>
       </c>
       <c r="F32" t="n">
-        <v>7.110636436347804</v>
+        <v>7.06578220681205</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.217321489821576</v>
+        <v>-4.214807767675965</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>4.883237631593635</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.76730115316017</v>
+        <v>-24.70833342116104</v>
       </c>
       <c r="F33" t="n">
-        <v>7.080209924543632</v>
+        <v>7.029987850842771</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.353141039501643</v>
+        <v>-4.36608932701211</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.954055770661163</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.34685493970098</v>
+        <v>-24.28060788732185</v>
       </c>
       <c r="F34" t="n">
-        <v>7.182513178948879</v>
+        <v>7.133495597109457</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.396947884810058</v>
+        <v>-4.40795851149995</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.014195685029189</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.22707346100203</v>
+        <v>-24.17605275682782</v>
       </c>
       <c r="F35" t="n">
-        <v>7.077146325678668</v>
+        <v>7.03210880390313</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.560444562697533</v>
+        <v>-4.569255682510015</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.060401093960953</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.83808805127151</v>
+        <v>-23.77321569069075</v>
       </c>
       <c r="F36" t="n">
-        <v>7.202649140719454</v>
+        <v>7.168635337936649</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.545545522063649</v>
+        <v>-4.564424622761418</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.084427084714987</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.29880300491797</v>
+        <v>-23.24869876194268</v>
       </c>
       <c r="F37" t="n">
-        <v>7.179213918632764</v>
+        <v>7.146273684682981</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.659199803032673</v>
+        <v>-4.685633162470118</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.081675958214631</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.77462647604378</v>
+        <v>-22.70879837735558</v>
       </c>
       <c r="F38" t="n">
-        <v>7.094035396344495</v>
+        <v>7.053161226872626</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.593122950590482</v>
+        <v>-4.583159708127928</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.051563174518038</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.57602933423764</v>
+        <v>-22.5118508657075</v>
       </c>
       <c r="F39" t="n">
-        <v>7.275049575434199</v>
+        <v>7.24365423321974</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.754354660086339</v>
+        <v>-4.731456222416159</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>4.990799845161373</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.88190162217501</v>
+        <v>-21.80828360329598</v>
       </c>
       <c r="F40" t="n">
-        <v>7.510789580402319</v>
+        <v>7.472272025441961</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.748332200779144</v>
+        <v>-4.733105852574217</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>4.90541661965799</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.23997292154234</v>
+        <v>-21.17126451622896</v>
       </c>
       <c r="F41" t="n">
-        <v>7.51602650153901</v>
+        <v>7.480651099260665</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.761372134409504</v>
+        <v>-4.747075339706338</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>4.797554649084836</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.51376906751747</v>
+        <v>-20.44012486403276</v>
       </c>
       <c r="F42" t="n">
-        <v>7.563342084009007</v>
+        <v>7.53985449271095</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.096181594980965</v>
+        <v>-5.095435333718986</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>4.67238451282423</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.74569602900477</v>
+        <v>-19.67461791687704</v>
       </c>
       <c r="F43" t="n">
-        <v>7.653521865982817</v>
+        <v>7.634616580679364</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.250199445611029</v>
+        <v>-5.244975616777181</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>4.536338614933726</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.04613501126282</v>
+        <v>-18.95294399963542</v>
       </c>
       <c r="F44" t="n">
         <v>7.485495251312104</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.085419722045065</v>
+        <v>-5.082971461413663</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.389599171324933</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.60230594492831</v>
+        <v>-18.54782887280389</v>
       </c>
       <c r="F45" t="n">
-        <v>7.48903017307937</v>
+        <v>7.49274838708642</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.30170456499038</v>
+        <v>-5.340654165944515</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.237245227878524</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.88309338062093</v>
+        <v>-17.80467048659899</v>
       </c>
       <c r="F46" t="n">
-        <v>7.631945750899652</v>
+        <v>7.656794941693247</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.437785960727281</v>
+        <v>-5.486960650200804</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.076250409218353</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.71185915175399</v>
+        <v>-17.62478224555367</v>
       </c>
       <c r="F47" t="n">
-        <v>7.504060136741671</v>
+        <v>7.508197304439657</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.729207529681261</v>
+        <v>-5.769793668490612</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>3.904144573379241</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.0937060730819</v>
+        <v>-17.02083431546485</v>
       </c>
       <c r="F48" t="n">
-        <v>7.475649839575126</v>
+        <v>7.492381802606852</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.823131710267804</v>
+        <v>-5.859253373808126</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>3.719714827639772</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.26383736515625</v>
+        <v>-16.18475985599223</v>
       </c>
       <c r="F49" t="n">
-        <v>7.442290651934408</v>
+        <v>7.448915357172321</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.091667933854447</v>
+        <v>-6.157587678662538</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>3.516886060962568</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.70175861955527</v>
+        <v>-15.62016738824563</v>
       </c>
       <c r="F50" t="n">
-        <v>7.184895978066073</v>
+        <v>7.194689020591684</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.313150421027927</v>
+        <v>-6.372131245329903</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>3.29624936560488</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.98046437909605</v>
+        <v>-14.89820544034149</v>
       </c>
       <c r="F51" t="n">
-        <v>7.065913129840467</v>
+        <v>7.080236109149316</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.281781263419152</v>
+        <v>-6.3311523374353</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>3.055180058347789</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.35398459581662</v>
+        <v>-14.25642075504008</v>
       </c>
       <c r="F52" t="n">
-        <v>6.966254520609248</v>
+        <v>6.983091222063708</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.519458929207847</v>
+        <v>-6.586661719694427</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>2.794083157504117</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.84922395205671</v>
+        <v>-13.76396687595139</v>
       </c>
       <c r="F53" t="n">
-        <v>6.984976513672916</v>
+        <v>7.003672322130901</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.565897327387449</v>
+        <v>-6.624380644181439</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>2.516370719217933</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.37210115959569</v>
+        <v>-13.27020376657853</v>
       </c>
       <c r="F54" t="n">
-        <v>6.758113090031487</v>
+        <v>6.777882467322494</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.773135389069131</v>
+        <v>-6.82978578346528</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>2.222900869874748</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.7787710871115</v>
+        <v>-12.66821968191597</v>
       </c>
       <c r="F55" t="n">
-        <v>6.771833823409616</v>
+        <v>6.796918675654363</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.066560080357895</v>
+        <v>-7.127111981000879</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.920610052379081</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.51692503027698</v>
+        <v>-12.41092974647037</v>
       </c>
       <c r="F56" t="n">
-        <v>6.781810158175011</v>
+        <v>6.794509691931485</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.055850576633364</v>
+        <v>-7.125344520117245</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.613844073775824</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.07910533094682</v>
+        <v>-11.97855644512236</v>
       </c>
       <c r="F57" t="n">
-        <v>6.460786892495888</v>
+        <v>6.473774456914881</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.299812547786087</v>
+        <v>-7.385030346982882</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.306823139641661</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.65067281275418</v>
+        <v>-11.56112146131677</v>
       </c>
       <c r="F58" t="n">
-        <v>6.589012906527754</v>
+        <v>6.612212467163292</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.96860665384998</v>
+        <v>-8.041072550078933</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.003956285795544</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.55072617286044</v>
+        <v>-11.46011434489285</v>
       </c>
       <c r="F59" t="n">
-        <v>6.451753203535097</v>
+        <v>6.464164706629053</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.027103062946813</v>
+        <v>-8.090954223905911</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.7041899589215387</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.30250920328416</v>
+        <v>-11.19664484250596</v>
       </c>
       <c r="F60" t="n">
-        <v>6.320987282751937</v>
+        <v>6.342694320863519</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.260866130185832</v>
+        <v>-8.337050240421835</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.4087833127900153</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.34093511212462</v>
+        <v>-11.25497105166585</v>
       </c>
       <c r="F61" t="n">
-        <v>6.163251218114821</v>
+        <v>6.183858502787698</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.716478269077898</v>
+        <v>-8.803738467518002</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1166988488370614</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.35199810802588</v>
+        <v>-11.24791430043416</v>
       </c>
       <c r="F62" t="n">
-        <v>6.1216700642895</v>
+        <v>6.130075322713887</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.91787716369217</v>
+        <v>-9.001000194434289</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1738865766158722</v>
       </c>
       <c r="E63" t="n">
-        <v>-10.99249656429492</v>
+        <v>-10.90938662585565</v>
       </c>
       <c r="F63" t="n">
-        <v>6.393989963397401</v>
+        <v>6.400326637972797</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.950450813162385</v>
+        <v>-9.016684773238676</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4617388232991977</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.80814384798058</v>
+        <v>-10.74527460973461</v>
       </c>
       <c r="F64" t="n">
-        <v>6.251205308605537</v>
+        <v>6.250027001349782</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.132564745690795</v>
+        <v>-9.221055620598021</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7482562244827715</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.87200810124252</v>
+        <v>-10.81370807668831</v>
       </c>
       <c r="F65" t="n">
-        <v>6.214599229860071</v>
+        <v>6.211169046515539</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.201260058701331</v>
+        <v>-9.29560319297881</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.031184203139377</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.59840515645613</v>
+        <v>-10.53734265600232</v>
       </c>
       <c r="F66" t="n">
-        <v>6.079905618224394</v>
+        <v>6.087944292169214</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.540403071513403</v>
+        <v>-9.632153929828219</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.308143468794183</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.83639703751303</v>
+        <v>-10.78574291781839</v>
       </c>
       <c r="F67" t="n">
-        <v>5.827800234704116</v>
+        <v>5.825391250981238</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.583254178714373</v>
+        <v>-9.680674004159656</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.578355239243004</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.93051760264219</v>
+        <v>-10.87274127020166</v>
       </c>
       <c r="F68" t="n">
-        <v>5.794179201006564</v>
+        <v>5.798185445676132</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.421145284928121</v>
+        <v>-9.515933557502217</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.838001228718795</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.72249400279001</v>
+        <v>-10.66520208555461</v>
       </c>
       <c r="F69" t="n">
-        <v>5.823663067006131</v>
+        <v>5.849114503730446</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.462228931245457</v>
+        <v>-9.580805918082969</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.086895500165851</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.95579883942957</v>
+        <v>-10.90286665904047</v>
       </c>
       <c r="F70" t="n">
-        <v>5.587242262290242</v>
+        <v>5.581219802983047</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.513655496807758</v>
+        <v>-9.619912626671205</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.323343848937976</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.94659495053183</v>
+        <v>-10.88956487935327</v>
       </c>
       <c r="F71" t="n">
-        <v>5.339823923187302</v>
+        <v>5.360326469437445</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.493480258128656</v>
+        <v>-9.608993646101206</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.545838457990768</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.02093304606715</v>
+        <v>-10.9719678334391</v>
       </c>
       <c r="F72" t="n">
-        <v>5.499288171799526</v>
+        <v>5.514213397039093</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.705483918044727</v>
+        <v>-9.830463040971845</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.756198018505818</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.45567605422951</v>
+        <v>-11.4050612114434</v>
       </c>
       <c r="F73" t="n">
-        <v>5.589179923110817</v>
+        <v>5.592452998821249</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.512254620403692</v>
+        <v>-9.647393370335989</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.95314503445434</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.57845567027922</v>
+        <v>-11.51279777152796</v>
       </c>
       <c r="F74" t="n">
-        <v>5.603502902419665</v>
+        <v>5.62363886419024</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.553508466657972</v>
+        <v>-9.682271265106348</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.138645045803368</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.07927553088376</v>
+        <v>-12.02180032140859</v>
       </c>
       <c r="F75" t="n">
-        <v>5.536915450166647</v>
+        <v>5.545163600956934</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.649540508002032</v>
+        <v>-9.784103196609292</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.312148461324621</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.06145690671618</v>
+        <v>-12.01453409333143</v>
       </c>
       <c r="F76" t="n">
-        <v>5.436628410399025</v>
+        <v>5.439482532418521</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.659412104344693</v>
+        <v>-9.786931134023105</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.470498135848066</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.69738933264733</v>
+        <v>-12.64681376676975</v>
       </c>
       <c r="F77" t="n">
-        <v>5.43552865696032</v>
+        <v>5.445688283965499</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.437327371240494</v>
+        <v>-9.57784705764074</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.611461474399768</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.38900332256436</v>
+        <v>-13.33762912621342</v>
       </c>
       <c r="F78" t="n">
-        <v>5.502220847636072</v>
+        <v>5.526493977104632</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.902388969430408</v>
+        <v>-9.038260888321842</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.727943156808799</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.72281776811985</v>
+        <v>-13.67428460148557</v>
       </c>
       <c r="F79" t="n">
-        <v>5.67938588969031</v>
+        <v>5.721097966544049</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.02505075475454</v>
+        <v>-9.167665209609462</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.814875038371496</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.30042398489112</v>
+        <v>-14.25083034172666</v>
       </c>
       <c r="F80" t="n">
-        <v>5.70145951228146</v>
+        <v>5.753776354436997</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.486721446508447</v>
+        <v>-8.628471809375815</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.866543467717477</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.87433817226102</v>
+        <v>-14.84105753843735</v>
       </c>
       <c r="F81" t="n">
-        <v>5.751053155445918</v>
+        <v>5.798106891859081</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.36114007765061</v>
+        <v>-8.517278881341037</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.873878336013468</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.7301951013275</v>
+        <v>-15.69416508390707</v>
       </c>
       <c r="F82" t="n">
-        <v>5.748120479609371</v>
+        <v>5.776504592170234</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.248952134599861</v>
+        <v>-8.412893950783955</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.829157929199788</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.76381931837893</v>
+        <v>-16.74624944796533</v>
       </c>
       <c r="F83" t="n">
-        <v>5.907401435981811</v>
+        <v>5.951339204318644</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.082378765544579</v>
+        <v>-8.243963967217162</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.722851853385971</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.73763789604935</v>
+        <v>-17.75234055214061</v>
       </c>
       <c r="F84" t="n">
-        <v>5.825286512558505</v>
+        <v>5.879645753957352</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.73051003437035</v>
+        <v>-7.870623859382502</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.548610015835529</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.61668129344853</v>
+        <v>-18.60725483540248</v>
       </c>
       <c r="F85" t="n">
-        <v>6.087315861632811</v>
+        <v>6.159061681205469</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.544337487961005</v>
+        <v>-7.68386215934528</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.304901403675581</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.89359977420775</v>
+        <v>-19.87197128991322</v>
       </c>
       <c r="F86" t="n">
-        <v>5.961053693027204</v>
+        <v>6.038350649004755</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.517681559375251</v>
+        <v>-7.652754847793338</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.991524880949564</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.94902267549066</v>
+        <v>-20.93414981946245</v>
       </c>
       <c r="F87" t="n">
-        <v>6.010149828683677</v>
+        <v>6.084671216458782</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.062776404836637</v>
+        <v>-7.199983738617926</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.616573198280066</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.37808680757358</v>
+        <v>-22.38503882038254</v>
       </c>
       <c r="F88" t="n">
-        <v>6.296295199592442</v>
+        <v>6.355158193168842</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.121770321441454</v>
+        <v>-7.249407181845442</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.19163538884971</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.95639009974935</v>
+        <v>-23.95364071615258</v>
       </c>
       <c r="F89" t="n">
-        <v>6.142591564230577</v>
+        <v>6.221669073394603</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.806481484407008</v>
+        <v>-6.917464935596319</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.732410283310318</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.32850271447076</v>
+        <v>-25.33083314437659</v>
       </c>
       <c r="F90" t="n">
-        <v>6.393230609832582</v>
+        <v>6.453769418172723</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.172817210221345</v>
+        <v>-7.294929118826124</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.25961472094617</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.06438496364954</v>
+        <v>-27.06731763948608</v>
       </c>
       <c r="F91" t="n">
-        <v>6.509856843546677</v>
+        <v>6.606792253786817</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.737550509945319</v>
+        <v>-6.824483400814381</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.7910292314242888</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.04690001376075</v>
+        <v>-29.05771425590801</v>
       </c>
       <c r="F92" t="n">
-        <v>6.284302650189421</v>
+        <v>6.383987444026323</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.986474463875058</v>
+        <v>-7.083488427932248</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.3474316770049088</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.89898954296268</v>
+        <v>-30.92623462517632</v>
       </c>
       <c r="F93" t="n">
-        <v>6.267361210312227</v>
+        <v>6.366103358344525</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.390381915491269</v>
+        <v>-6.478440744404719</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0555340694353039</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.91530891901123</v>
+        <v>-32.95876227214292</v>
       </c>
       <c r="F94" t="n">
-        <v>6.275007115171795</v>
+        <v>6.365265450962655</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.682706853341329</v>
+        <v>-6.755513149444168</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.4074770934236012</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.19069878369186</v>
+        <v>-35.23149439934667</v>
       </c>
       <c r="F95" t="n">
-        <v>6.197788713011295</v>
+        <v>6.276892406781004</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.169121997466099</v>
+        <v>-6.221504301135845</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.7003139450393476</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.58653783451636</v>
+        <v>-37.63545067793305</v>
       </c>
       <c r="F96" t="n">
-        <v>5.999283217325044</v>
+        <v>6.098077734568709</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.135055825471928</v>
+        <v>-6.191797865987969</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.9367720826453313</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.60925934665451</v>
+        <v>-39.66594901795919</v>
       </c>
       <c r="F97" t="n">
-        <v>5.904756790807782</v>
+        <v>5.982420331264901</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.74414584722367</v>
+        <v>-5.785006924392698</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>1.119281925484339</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.03348251003988</v>
+        <v>-42.09488541036757</v>
       </c>
       <c r="F98" t="n">
-        <v>5.810387471924621</v>
+        <v>5.902792945381523</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.923785334514994</v>
+        <v>-5.974308531181215</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.260919833796201</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.3284191828632</v>
+        <v>-44.34894791371902</v>
       </c>
       <c r="F99" t="n">
-        <v>5.66482724893031</v>
+        <v>5.757416014626997</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.673355765758457</v>
+        <v>-5.704646369550183</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.372033701784722</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.47516407982102</v>
+        <v>-46.49016785887764</v>
       </c>
       <c r="F100" t="n">
-        <v>5.40693506755399</v>
+        <v>5.487347991607871</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.737128372900505</v>
+        <v>-5.783239463509065</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.471734492251644</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.91198203854013</v>
+        <v>-48.9616411432188</v>
       </c>
       <c r="F101" t="n">
-        <v>5.335005955741547</v>
+        <v>5.412538573170249</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.799120426856079</v>
+        <v>-5.842586872290609</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.56268402725459</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.30204738381143</v>
+        <v>-51.32567899044075</v>
       </c>
       <c r="F102" t="n">
-        <v>4.729932087608335</v>
+        <v>4.80605073633013</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.494685108877422</v>
+        <v>-5.520712606926773</v>
       </c>
     </row>
   </sheetData>
